--- a/Examples/gturbo/gturbo_model.xlsx
+++ b/Examples/gturbo/gturbo_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unizares-my.sharepoint.com/personal/ctorresc_unizar_es/Documents/Termoeconomia/Manual TaesLab/Ejemplos/gturbo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\gturbo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{22EF5B37-2C6C-4B03-88B8-B737939A5DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42D44BF6-63A1-4417-B53F-DB7A634316F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB32E824-F1AA-42D2-ACA4-F06408823E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="1860" windowWidth="19695" windowHeight="13635" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="435" windowWidth="25740" windowHeight="14700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$14</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$1</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$14</definedName>
     <definedName name="gturbo_processes" localSheetId="3">Processes!$G$5:$K$16</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
@@ -508,11 +508,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gturbo_processes" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="gturbo_processes" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1095,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1118,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -1135,7 +1135,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -1152,7 +1152,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -1169,7 +1169,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -1186,7 +1186,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
@@ -1203,7 +1203,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -1220,7 +1220,7 @@
         <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
@@ -1237,7 +1237,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -1254,7 +1254,7 @@
         <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -1271,7 +1271,7 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -1288,7 +1288,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1300,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E11</xm:sqref>
+          <xm:sqref>B2:B11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1313,7 +1313,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1936,8 +1936,8 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
